--- a/app/Views/reportTemplates/Financial_Report_Template_Single_Customer.xlsx
+++ b/app/Views/reportTemplates/Financial_Report_Template_Single_Customer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PAID ENTRIES" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$UGX]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -339,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,16 +372,22 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,6 +445,396 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$UGX]\ * #,##0.00_);_([$UGX]\ * \(#,##0.00\);_([$UGX]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$UGX]\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$UGX]\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$UGX]\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
@@ -603,162 +1000,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
@@ -1225,123 +1466,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -1787,123 +1911,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.249977111117893"/>
         </left>
@@ -2393,58 +2400,58 @@
     <tableColumn id="3" name="PROFORMA NO." dataDxfId="46"/>
     <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="45"/>
     <tableColumn id="13" name="LPO NO." dataDxfId="44"/>
-    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="43"/>
-    <tableColumn id="6" name="VAT" dataDxfId="42"/>
-    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="41" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="CLEARED" dataDxfId="40"/>
-    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="39"/>
-    <tableColumn id="10" name="CAR REG NO" dataDxfId="38"/>
-    <tableColumn id="11" name="PHONE" dataDxfId="37"/>
-    <tableColumn id="12" name="DATE" dataDxfId="36"/>
+    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="9"/>
+    <tableColumn id="6" name="VAT" dataDxfId="8"/>
+    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="CLEARED" dataDxfId="43"/>
+    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="42"/>
+    <tableColumn id="10" name="CAR REG NO" dataDxfId="41"/>
+    <tableColumn id="11" name="PHONE" dataDxfId="40"/>
+    <tableColumn id="12" name="DATE" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="B8:N9" insertRow="1" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="B8:N9" insertRow="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="B8:N9"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="SN #" dataDxfId="30"/>
-    <tableColumn id="2" name="CUSTOMER NAME" dataDxfId="29"/>
-    <tableColumn id="3" name="PROFORMA NO." dataDxfId="28"/>
-    <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="27"/>
-    <tableColumn id="13" name="LPO NO." dataDxfId="26"/>
-    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="25"/>
-    <tableColumn id="6" name="VAT" dataDxfId="24"/>
-    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="UNCLEARED" dataDxfId="22"/>
-    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="21"/>
-    <tableColumn id="10" name="CAR REG NO" dataDxfId="20"/>
-    <tableColumn id="11" name="PHONE" dataDxfId="19"/>
-    <tableColumn id="12" name="DATE" dataDxfId="18"/>
+    <tableColumn id="1" name="SN #" dataDxfId="33"/>
+    <tableColumn id="2" name="CUSTOMER NAME" dataDxfId="32"/>
+    <tableColumn id="3" name="PROFORMA NO." dataDxfId="31"/>
+    <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="30"/>
+    <tableColumn id="13" name="LPO NO." dataDxfId="29"/>
+    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="6"/>
+    <tableColumn id="6" name="VAT" dataDxfId="5"/>
+    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="UNCLEARED" dataDxfId="28"/>
+    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="27"/>
+    <tableColumn id="10" name="CAR REG NO" dataDxfId="26"/>
+    <tableColumn id="11" name="PHONE" dataDxfId="25"/>
+    <tableColumn id="12" name="DATE" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="B8:N9" insertRow="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="B8:N9" insertRow="1" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="B8:N9"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="SN #" dataDxfId="12"/>
-    <tableColumn id="2" name="CUSTOMER NAME" dataDxfId="11"/>
-    <tableColumn id="3" name="PROFORMA NO." dataDxfId="10"/>
-    <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="9"/>
-    <tableColumn id="13" name="LPO NO." dataDxfId="8"/>
-    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="7"/>
-    <tableColumn id="6" name="VAT" dataDxfId="6"/>
-    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="UNCLEARED" dataDxfId="4"/>
-    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="3"/>
-    <tableColumn id="10" name="CAR REG NO" dataDxfId="2"/>
-    <tableColumn id="11" name="PHONE" dataDxfId="1"/>
-    <tableColumn id="12" name="DATE" dataDxfId="0"/>
+    <tableColumn id="1" name="SN #" dataDxfId="18"/>
+    <tableColumn id="2" name="CUSTOMER NAME" dataDxfId="17"/>
+    <tableColumn id="3" name="PROFORMA NO." dataDxfId="16"/>
+    <tableColumn id="4" name="TAX INVOICE NO." dataDxfId="15"/>
+    <tableColumn id="13" name="LPO NO." dataDxfId="3"/>
+    <tableColumn id="5" name="WITHHOLDING TAX" dataDxfId="2"/>
+    <tableColumn id="6" name="VAT" dataDxfId="1"/>
+    <tableColumn id="7" name="TOTAL PAYABLE" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="UNCLEARED" dataDxfId="14"/>
+    <tableColumn id="9" name="CONTACT PERSON" dataDxfId="13"/>
+    <tableColumn id="10" name="CAR REG NO" dataDxfId="12"/>
+    <tableColumn id="11" name="PHONE" dataDxfId="11"/>
+    <tableColumn id="12" name="DATE" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2779,8 +2786,8 @@
   </sheetPr>
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" activeCellId="2" sqref="G9 H9 I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,79 +2806,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="22">
         <v>14</v>
       </c>
-      <c r="M3" s="20"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="23">
         <v>36000000</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="2:14" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -2879,13 +2886,13 @@
     <row r="7" spans="2:14" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -2932,32 +2939,32 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2978,7 +2985,7 @@
   <dimension ref="B1:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:I7"/>
+      <selection activeCell="I9" activeCellId="2" sqref="G9 H9 I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,79 +3004,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="22">
         <v>14</v>
       </c>
-      <c r="M3" s="20"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="23">
         <v>36000000</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="2:14" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -3077,13 +3084,13 @@
     <row r="7" spans="2:14" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -3130,32 +3137,32 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3175,8 +3182,8 @@
   </sheetPr>
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:I6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" activeCellId="2" sqref="G9 H9 I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,79 +3202,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="22">
         <v>14</v>
       </c>
-      <c r="M3" s="20"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="23">
         <v>36000000</v>
       </c>
-      <c r="M4" s="21"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="2:14" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
@@ -3275,13 +3282,13 @@
     <row r="7" spans="2:14" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -3328,32 +3335,32 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
